--- a/AddressMapping.xlsx
+++ b/AddressMapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7458e41fa0d8b411/Documents/ECE585-Group11/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satya\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{4B239788-D437-4300-9A77-45E1CF730783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE265385-A47F-43B0-80E2-6EB5F2E41486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>DIMM</t>
   </si>
@@ -34,12 +34,6 @@
     <t>Capacity</t>
   </si>
   <si>
-    <t>16 GB x 8 bytes - bits = 16 GB x 8 = 128 Gib</t>
-  </si>
-  <si>
-    <t>128 Gib (16 GB)</t>
-  </si>
-  <si>
     <t>Address bits x Data bits</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
     <t>No. of Bytes (Byte Select)</t>
   </si>
   <si>
-    <t xml:space="preserve">    ROW</t>
-  </si>
-  <si>
     <t>HIGH COLUMN</t>
   </si>
   <si>
@@ -131,13 +122,49 @@
   </si>
   <si>
     <t>35:34</t>
+  </si>
+  <si>
+    <t>ROW</t>
+  </si>
+  <si>
+    <t>ADDRESS MAPPING</t>
+  </si>
+  <si>
+    <t>16 GB x 8 = 128 Gib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128 Gib </t>
+  </si>
+  <si>
+    <t>64 DQ = 8 CHIPS x 8 DQ</t>
+  </si>
+  <si>
+    <t>log2(8)</t>
+  </si>
+  <si>
+    <t>log2(4)</t>
+  </si>
+  <si>
+    <t>log2(16)</t>
+  </si>
+  <si>
+    <t>PAGE SIZE = (COLUMN BITS X INTERNAL ACCESS WIDTH) / 8 
+COLUMN BITS = PAGE SIZE / INTERNAL ACCESS WIDTH 
+COLUMN BITS = 2^10 bits , log2(2^10) = 10
+HIGH COLUMNS = COLUMN BITS - LOW COLUMN = 6</t>
+  </si>
+  <si>
+    <t>Capacity = Row x Column x Internal Access Width x Banks x Bank Group</t>
+  </si>
+  <si>
+    <t>Capacity / Data Pins = Data Pins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -145,10 +172,95 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -171,7 +283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -179,33 +291,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,244 +619,336 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:N14"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" customWidth="1"/>
+    <col min="7" max="13" width="16.81640625" customWidth="1"/>
+    <col min="14" max="14" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="1:22" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="E2" s="20"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:22" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" ht="20.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="B5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="15">
+        <v>8</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="1:22" ht="20.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="1">
+      <c r="D6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+    </row>
+    <row r="7" spans="1:22" ht="20.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15">
+        <v>36</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+    </row>
+    <row r="8" spans="1:22" ht="20.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15">
         <v>8</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="15">
+        <v>16</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:22" ht="82" x14ac:dyDescent="0.4">
+      <c r="A10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="15">
+        <v>6</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="1">
-        <v>8</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="8" t="s">
+      <c r="I10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="11">
+        <v>6</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="11" spans="1:22" ht="20.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="1">
+      <c r="B11" s="16"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="20.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="1">
-        <v>7</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="10">
-        <v>6</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="1" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:22" ht="20.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="1" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="20.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="1">
+      <c r="B14" s="16"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="15">
         <v>2</v>
       </c>
     </row>
+    <row r="17" spans="1:1" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+    </row>
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="G7:N7"/>
+    <mergeCell ref="G9:N9"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AddressMapping.xlsx
+++ b/AddressMapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satya\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6104000-68DC-44AE-A8F3-C318A9C17508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE265385-A47F-43B0-80E2-6EB5F2E41486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -352,13 +352,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -382,18 +394,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -638,7 +638,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
@@ -657,30 +657,30 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:22" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="2"/>
@@ -701,17 +701,17 @@
       <c r="V4" s="2"/>
     </row>
     <row r="5" spans="1:22" ht="20.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="15">
         <v>8</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -730,17 +730,17 @@
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:22" ht="20.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="4"/>
@@ -761,25 +761,25 @@
       <c r="V6" s="4"/>
     </row>
     <row r="7" spans="1:22" ht="20.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15">
         <v>36</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="5"/>
@@ -790,13 +790,13 @@
       <c r="V7" s="4"/>
     </row>
     <row r="8" spans="1:22" ht="20.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15">
         <v>8</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -825,121 +825,121 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="15">
         <v>16</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="18"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:22" ht="82" x14ac:dyDescent="0.4">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="13" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="15">
         <v>6</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="11">
         <v>6</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="20.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="20.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="20.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="20.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="13"/>
     </row>
     <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/AddressMapping.xlsx
+++ b/AddressMapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satya\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFDC098-363C-4774-88DF-58149B8D2DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CD8840-5473-41D2-8004-5820895D49CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
   <si>
     <t>DIMM</t>
   </si>
@@ -152,13 +152,202 @@
   </si>
   <si>
     <t xml:space="preserve">ADDRESS MAPPING </t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>tRC</t>
+  </si>
+  <si>
+    <t>tRAS</t>
+  </si>
+  <si>
+    <t>tRRD_L</t>
+  </si>
+  <si>
+    <t>tRRD_S</t>
+  </si>
+  <si>
+    <t>tRP</t>
+  </si>
+  <si>
+    <t>tRFC</t>
+  </si>
+  <si>
+    <t>CWL(tWCD)</t>
+  </si>
+  <si>
+    <t>tCAS(CL)</t>
+  </si>
+  <si>
+    <t>tRCD</t>
+  </si>
+  <si>
+    <t>tWR</t>
+  </si>
+  <si>
+    <t>tRTP</t>
+  </si>
+  <si>
+    <t>tCCD_L</t>
+  </si>
+  <si>
+    <t>tCCD_S</t>
+  </si>
+  <si>
+    <t>tCCD_L_WR</t>
+  </si>
+  <si>
+    <t>tCCD_S_WR</t>
+  </si>
+  <si>
+    <t>tBURST</t>
+  </si>
+  <si>
+    <t>tCCD_L_RTW</t>
+  </si>
+  <si>
+    <t>tCCD_S_RTW</t>
+  </si>
+  <si>
+    <t>tCCD_L_WTR</t>
+  </si>
+  <si>
+    <t>tCCD_S_WTR</t>
+  </si>
+  <si>
+    <t>295ns</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Row cycle time tRC = tRAS + tRP</t>
+  </si>
+  <si>
+    <t>Row Address strobe</t>
+  </si>
+  <si>
+    <t>Row to Row delay long</t>
+  </si>
+  <si>
+    <t>Row to Row delay short</t>
+  </si>
+  <si>
+    <t>Row Precharge delay</t>
+  </si>
+  <si>
+    <t>Row Refresh Cycle Time</t>
+  </si>
+  <si>
+    <t>CAS Write Latency</t>
+  </si>
+  <si>
+    <t>Column address strobe</t>
+  </si>
+  <si>
+    <t>Row Command delay</t>
+  </si>
+  <si>
+    <t>Write recovery time</t>
+  </si>
+  <si>
+    <t>Read to Pre-charge Delay</t>
+  </si>
+  <si>
+    <t>Column to Column Delay short</t>
+  </si>
+  <si>
+    <t>Column to Column Delay long</t>
+  </si>
+  <si>
+    <t>CAS-CAS Delay - Long write</t>
+  </si>
+  <si>
+    <t>CAS-CAS Delay - Short write</t>
+  </si>
+  <si>
+    <t>Data Read Burst</t>
+  </si>
+  <si>
+    <t>CAS-CAS Delay - Long read to write</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>CAS - CAS Delay - Long write to read</t>
+  </si>
+  <si>
+    <t>Precharge to Precharge</t>
+  </si>
+  <si>
+    <t>Activate to Precharge</t>
+  </si>
+  <si>
+    <t>Applies for accesses to same bank groups</t>
+  </si>
+  <si>
+    <t>Applies for accesses to different bank groups</t>
+  </si>
+  <si>
+    <t>Precharge to Activate</t>
+  </si>
+  <si>
+    <t>Write to Data Out</t>
+  </si>
+  <si>
+    <t>Time from column address to valid data out</t>
+  </si>
+  <si>
+    <t>Activate to Read</t>
+  </si>
+  <si>
+    <t>Read to Precharge</t>
+  </si>
+  <si>
+    <t>Time for burst data to be read completely</t>
+  </si>
+  <si>
+    <t>Time interval between successive row refresh operation</t>
+  </si>
+  <si>
+    <t>Time between the last write command to a row and precharging it. tRAS = tRCD + tWR</t>
+  </si>
+  <si>
+    <t>minimum clock cycles between two write operations in the same bank</t>
+  </si>
+  <si>
+    <t>minimum clock cycles between two write operations in the different bank</t>
+  </si>
+  <si>
+    <t>Minimum clock cycles between one read operation and another write operation in same bank</t>
+  </si>
+  <si>
+    <t>Minimum clock cycles between one read operation and another write operation in different bank</t>
+  </si>
+  <si>
+    <t>Minimum clock cycles between one write operation and another read operation in same bank</t>
+  </si>
+  <si>
+    <t>Minimum clock cycles between one write operation and another read operation in different bank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -253,6 +442,18 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -277,7 +478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -324,11 +525,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,6 +588,24 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,24 +825,30 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="88.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="7" max="13" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1"/>
+    <col min="7" max="13" width="16.81640625" customWidth="1"/>
+    <col min="15" max="15" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.453125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="42" customWidth="1"/>
+    <col min="18" max="18" width="102.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:21" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="P1"/>
+    </row>
+    <row r="2" spans="1:21" ht="20" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="18" t="s">
         <v>0</v>
@@ -631,8 +865,20 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="O2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="20" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
       <c r="B3" s="14" t="s">
         <v>2</v>
@@ -642,8 +888,20 @@
         <v>2</v>
       </c>
       <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="O3" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="22">
+        <v>115</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="20.5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
@@ -667,15 +925,23 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="O4" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="22">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>89</v>
+      </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="20.5" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
@@ -695,15 +961,23 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="O5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="22">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>90</v>
+      </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:21" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="20.5" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -724,16 +998,24 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="22">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>91</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:21" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="20.5" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
@@ -752,16 +1034,24 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="22">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="22" t="s">
+        <v>92</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:21" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="20.5" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
         <v>11</v>
       </c>
@@ -792,8 +1082,20 @@
       <c r="M8" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="O8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="20.5" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
@@ -812,8 +1114,20 @@
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="1:21" ht="81" x14ac:dyDescent="0.3">
+      <c r="O9" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="22">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="82" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
@@ -846,8 +1160,20 @@
       <c r="M10" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="O10" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="22">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="20.5" x14ac:dyDescent="0.4">
       <c r="A11" s="14" t="s">
         <v>14</v>
       </c>
@@ -859,8 +1185,20 @@
       <c r="E11" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="O11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" s="22">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="20.5" x14ac:dyDescent="0.4">
       <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
@@ -872,8 +1210,20 @@
       <c r="E12" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="O12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="22">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="R12" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="20.5" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
         <v>18</v>
       </c>
@@ -885,8 +1235,20 @@
       <c r="E13" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="O13" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="R13" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="20.5" x14ac:dyDescent="0.4">
       <c r="A14" s="14" t="s">
         <v>19</v>
       </c>
@@ -898,13 +1260,132 @@
       <c r="E14" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="O14" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" s="22">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="R14" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O15" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" s="22">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O16" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="22">
+        <v>48</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.4">
+      <c r="O17" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="22">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="R17" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.4">
       <c r="A18" s="9"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="O18" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" s="22">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="R18" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="18" x14ac:dyDescent="0.4">
       <c r="A19" s="9"/>
+      <c r="O19" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" s="22">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="R19" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O20" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="P20" s="22">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O21" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" s="22">
+        <v>70</v>
+      </c>
+      <c r="Q21" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="R21" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O22" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" s="22">
+        <v>52</v>
+      </c>
+      <c r="Q22" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="R22" s="22" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -915,5 +1396,6 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>